--- a/VO-Teil-1/Handlungsanleitungen/computer-spielen-anders/SpeicherUndIoTabelle.xlsx
+++ b/VO-Teil-1/Handlungsanleitungen/computer-spielen-anders/SpeicherUndIoTabelle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiolanderer/Desktop/VO Programmieren/Script/ProgrammierenOhneComputer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiolanderer/Desktop/VO Programmieren/Script/VO-Teil-1/Handlungsanleitungen/computer-spielen-anders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6969EFB1-F5C2-8145-938D-87DBED9F1B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B23C9B-1E4D-F644-8ADB-75E24C84A72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17380" yWindow="3840" windowWidth="28240" windowHeight="17240" xr2:uid="{86B0837E-A74E-6E4A-9BAE-B6253CA56BB3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16600" windowHeight="20320" xr2:uid="{86B0837E-A74E-6E4A-9BAE-B6253CA56BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
